--- a/Eagle_files/OWHL_RevC_parts_list_20160414.xlsx
+++ b/Eagle_files/OWHL_RevC_parts_list_20160414.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Eagle\Eagle_projects\OWHL_revC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arduino\OWHL\Eagle_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D37DD5-F1B5-486E-92E2-BEA5CF8A8CFE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="1770" windowWidth="14360" windowHeight="12080"/>
+    <workbookView xWindow="500" yWindow="1770" windowWidth="14360" windowHeight="12080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RevC_partslist" sheetId="1" r:id="rId1"/>
@@ -239,12 +240,6 @@
     <t>Resistor, surface-mount, 100k ohm 1/8watt 5% for SD card pull ups</t>
   </si>
   <si>
-    <t>ERJ-6GEYJ104V</t>
-  </si>
-  <si>
-    <t>P100KACT-ND</t>
-  </si>
-  <si>
     <t>65T8779</t>
   </si>
   <si>
@@ -591,12 +586,18 @@
   </si>
   <si>
     <t>SPI_HDR, I2C_HDR, FTDI_HDR</t>
+  </si>
+  <si>
+    <t>P100KCCT-ND</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF1003V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -624,18 +625,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -769,14 +764,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -836,80 +831,80 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="9" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1924,11 +1919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2006,7 +2001,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2053,7 +2048,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -2103,7 +2098,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>36</v>
@@ -2147,7 +2142,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -2194,28 +2189,28 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="D6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="H6" t="s">
         <v>176</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6" t="s">
-        <v>178</v>
       </c>
       <c r="I6" s="35">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K6" s="6">
         <v>0.49</v>
@@ -2229,10 +2224,10 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>52</v>
@@ -2370,10 +2365,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>52</v>
@@ -2385,25 +2380,25 @@
         <v>46</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="I10" s="4">
         <v>2</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>72</v>
+        <v>187</v>
       </c>
       <c r="K10" s="5">
         <v>0.1</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M10" s="5">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O10" s="5">
         <v>0.1</v>
@@ -2420,37 +2415,37 @@
         <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K11" s="5">
         <v>0.89</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M11" s="5">
         <v>1.53</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O11" s="5">
         <v>1.2</v>
@@ -2464,34 +2459,34 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K12" s="5">
         <v>0.51</v>
       </c>
       <c r="L12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M12" s="5">
         <v>0.505</v>
@@ -2503,31 +2498,31 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="I13" s="4">
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K13" s="5">
         <v>0.08</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M13" s="5">
         <v>0.03</v>
@@ -2539,31 +2534,31 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I14" s="4">
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K14" s="5">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M14" s="5">
         <v>7.3999999999999996E-2</v>
@@ -2581,32 +2576,32 @@
         <v>64</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="H15" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="I15" s="15">
         <v>1</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K15" s="16">
         <v>0.2</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O15" s="16">
         <v>0.19</v>
@@ -2620,40 +2615,40 @@
         <v>20</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="H16" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="I16" s="4">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K16" s="5">
         <v>0.44</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M16" s="5">
         <v>0.37</v>
       </c>
       <c r="N16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O16" s="5">
         <v>0.4</v>
@@ -2670,32 +2665,32 @@
         <v>64</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K17" s="5">
         <v>2.25</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O17" s="5">
         <v>2.14</v>
@@ -2709,40 +2704,40 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="G18" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="G18" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="I18" s="4">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K18" s="5">
         <v>0.86</v>
       </c>
       <c r="L18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M18" s="5">
         <v>0.75800000000000001</v>
       </c>
       <c r="N18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O18" s="5">
         <v>0.6</v>
@@ -2753,38 +2748,38 @@
         <v>19</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="15">
         <v>1</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K19" s="16">
         <v>0.42</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M19" s="16">
         <v>0.184</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O19" s="16">
         <v>0.39</v>
@@ -2795,39 +2790,39 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="23">
         <v>3</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K20" s="24">
         <v>0.68</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M20" s="24">
         <v>0.48</v>
       </c>
       <c r="O20" s="24"/>
       <c r="P20" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="19">
         <v>0.5</v>
@@ -2838,19 +2833,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="30">
@@ -2860,13 +2855,13 @@
       <c r="M21" s="31"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="26">
         <v>0.5</v>
       </c>
       <c r="R21" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S21" s="26">
         <v>0.49</v>
@@ -2883,37 +2878,37 @@
         <v>64</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="H22" s="22" t="s">
         <v>143</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>145</v>
       </c>
       <c r="I22" s="23">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K22" s="24">
         <v>3.61</v>
       </c>
       <c r="L22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M22" s="24">
         <v>3.11</v>
       </c>
       <c r="N22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O22" s="5">
         <v>3.12</v>
@@ -2930,37 +2925,37 @@
         <v>64</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="H23" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>153</v>
       </c>
       <c r="I23" s="15">
         <v>1</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K23" s="16">
         <v>8.41</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M23" s="16">
         <v>12.82</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O23" s="16">
         <v>9.59</v>
@@ -2974,28 +2969,28 @@
         <v>20</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>170</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>179</v>
+        <v>168</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K24" s="5">
         <v>3.65</v>
@@ -3016,16 +3011,16 @@
         <v>64</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="G25" t="s">
         <v>158</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" t="s">
-        <v>160</v>
       </c>
       <c r="H25" s="3">
         <v>3000</v>
@@ -3034,19 +3029,19 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K25" s="5">
         <v>0.54</v>
       </c>
       <c r="L25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M25" s="5">
         <v>0.3</v>
       </c>
       <c r="N25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O25" s="5">
         <v>0.54</v>
@@ -3063,37 +3058,37 @@
         <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="G26" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="I26" s="4">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K26" s="5">
         <v>35</v>
       </c>
       <c r="L26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M26" s="5">
         <v>35</v>
       </c>
       <c r="N26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O26" s="5">
         <v>35</v>
@@ -3405,75 +3400,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="alternate">
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="alternate">
       <formula>NOT(ISERROR(SEARCH("alternate",A25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="main">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="main">
       <formula>NOT(ISERROR(SEARCH("main",A25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="alternate">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="alternate">
       <formula>NOT(ISERROR(SEARCH("alternate",A6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="main">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="main">
       <formula>NOT(ISERROR(SEARCH("main",A6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="alternate">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="alternate">
       <formula>NOT(ISERROR(SEARCH("alternate",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="main">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="main">
       <formula>NOT(ISERROR(SEARCH("main",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="alternate">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="alternate">
       <formula>NOT(ISERROR(SEARCH("alternate",A21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="main">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="main">
       <formula>NOT(ISERROR(SEARCH("main",A21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="alternate">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="alternate">
       <formula>NOT(ISERROR(SEARCH("alternate",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="main">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="main">
       <formula>NOT(ISERROR(SEARCH("main",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1" display="http://www.digikey.com/product-detail/en/ERJ-6GEYJ102V/P1.0KACT-ND/42833"/>
-    <hyperlink ref="L8" r:id="rId2" tooltip="65T8778" display="http://www.newark.com/panasonic/erj-6geyj102v/resistor-thick-film-0805-1kohm/dp/65T8778"/>
-    <hyperlink ref="L4" r:id="rId3" tooltip="84R9733" display="http://www.newark.com/taiyo-yuden/lmk212sd104kg-t/capacitor-ceramic-0-1uf-10v-0805/dp/84R9733"/>
-    <hyperlink ref="J7" r:id="rId4" display="http://www.digikey.com/product-detail/en/ERJ-6GEYJ511V/P510ACT-ND/90030"/>
-    <hyperlink ref="L7" r:id="rId5" tooltip="65T8831" display="http://www.newark.com/panasonic/erj-6geyj511v/resistor-chip-thick-film-510-ohm/dp/65T8831"/>
-    <hyperlink ref="L13" r:id="rId6" tooltip="28C6963" display="http://www.newark.com/jst-japan-solderless-terminals/phr-2/wire-to-board-connector-housing/dp/28C6963"/>
-    <hyperlink ref="L14" r:id="rId7" tooltip="28C6968" display="http://www.newark.com/jst-japan-solderless-terminals/sph-002t-p0-5s/contact-pin-30-24awg-crimp/dp/28C6968"/>
-    <hyperlink ref="L5" r:id="rId8" tooltip="53W3651" display="http://www.newark.com/panasonic/eee-fc1v1r0r/capacitor-alum-elec-1uf-35v-20/dp/53W3651"/>
-    <hyperlink ref="N9" r:id="rId9" tooltip="Click to view additional information on this product." display="http://www.mouser.com/ProductDetail/Panasonic/ERJ-6GEYJ103V/?qs=sGAEpiMZZMu61qfTUdNhGzRxdwze5h8ZVHioc%2fD1YKQ%3d"/>
-    <hyperlink ref="L9" r:id="rId10" tooltip="67T1248" display="http://www.newark.com/panasonic/erj-6geyj103v/resistor-10kohm-125mw-5/dp/67T1248"/>
-    <hyperlink ref="J9" r:id="rId11" display="http://www.digikey.com/product-detail/en/ERJ-6GEYJ103V/P10KACT-ND/43118"/>
-    <hyperlink ref="J10" r:id="rId12" display="http://www.digikey.com/product-detail/en/ERJ-6GEYJ104V/P100KACT-ND/692"/>
-    <hyperlink ref="L10" r:id="rId13" tooltip="65T8779" display="http://www.newark.com/panasonic/erj-6geyj104v/resistor-chip-thick-film-100-kohm/dp/65T8779"/>
-    <hyperlink ref="P20" r:id="rId14"/>
-    <hyperlink ref="L20" r:id="rId15" tooltip="BG095-06-A-N-D" display="http://www.newark.com/global-connector-technology/bg095-06-a-n-d/board-board-connector-socket-6way/dp/67R8589"/>
-    <hyperlink ref="J23" r:id="rId16" display="http://www.digikey.com/product-detail/en/DS3231SN%23T%26R/DS3231SN%23T%26RCT-ND/3894827"/>
-    <hyperlink ref="N23" r:id="rId17" tooltip="Click to view additional information on this product." display="http://www.mouser.com/ProductDetail/Maxim-Integrated/DS3231SN/?qs=sGAEpiMZZMuuBt6TL7D%2f6MqiKtjHXkRT"/>
-    <hyperlink ref="L23" r:id="rId18" tooltip="26R5852" display="http://www.newark.com/maxim-integrated-products/ds3231sn/rtc-tcxo-crystal-3-3v-16soic/dp/26R5852"/>
-    <hyperlink ref="P21" r:id="rId19"/>
-    <hyperlink ref="R21" r:id="rId20"/>
-    <hyperlink ref="L16" r:id="rId21" tooltip="84R5176" display="http://www.newark.com/microchip/mcp1700t-3002e-tt/ic-ldo-volt-reg-3v-0-25a-sot-23/dp/84R5176"/>
+    <hyperlink ref="J8" r:id="rId1" display="http://www.digikey.com/product-detail/en/ERJ-6GEYJ102V/P1.0KACT-ND/42833" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L8" r:id="rId2" tooltip="65T8778" display="http://www.newark.com/panasonic/erj-6geyj102v/resistor-thick-film-0805-1kohm/dp/65T8778" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L4" r:id="rId3" tooltip="84R9733" display="http://www.newark.com/taiyo-yuden/lmk212sd104kg-t/capacitor-ceramic-0-1uf-10v-0805/dp/84R9733" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J7" r:id="rId4" display="http://www.digikey.com/product-detail/en/ERJ-6GEYJ511V/P510ACT-ND/90030" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L7" r:id="rId5" tooltip="65T8831" display="http://www.newark.com/panasonic/erj-6geyj511v/resistor-chip-thick-film-510-ohm/dp/65T8831" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L13" r:id="rId6" tooltip="28C6963" display="http://www.newark.com/jst-japan-solderless-terminals/phr-2/wire-to-board-connector-housing/dp/28C6963" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L14" r:id="rId7" tooltip="28C6968" display="http://www.newark.com/jst-japan-solderless-terminals/sph-002t-p0-5s/contact-pin-30-24awg-crimp/dp/28C6968" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L5" r:id="rId8" tooltip="53W3651" display="http://www.newark.com/panasonic/eee-fc1v1r0r/capacitor-alum-elec-1uf-35v-20/dp/53W3651" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N9" r:id="rId9" tooltip="Click to view additional information on this product." display="http://www.mouser.com/ProductDetail/Panasonic/ERJ-6GEYJ103V/?qs=sGAEpiMZZMu61qfTUdNhGzRxdwze5h8ZVHioc%2fD1YKQ%3d" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L9" r:id="rId10" tooltip="67T1248" display="http://www.newark.com/panasonic/erj-6geyj103v/resistor-10kohm-125mw-5/dp/67T1248" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J9" r:id="rId11" display="http://www.digikey.com/product-detail/en/ERJ-6GEYJ103V/P10KACT-ND/43118" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L10" r:id="rId12" tooltip="65T8779" display="http://www.newark.com/panasonic/erj-6geyj104v/resistor-chip-thick-film-100-kohm/dp/65T8779" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="P20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L20" r:id="rId14" tooltip="BG095-06-A-N-D" display="http://www.newark.com/global-connector-technology/bg095-06-a-n-d/board-board-connector-socket-6way/dp/67R8589" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J23" r:id="rId15" display="http://www.digikey.com/product-detail/en/DS3231SN%23T%26R/DS3231SN%23T%26RCT-ND/3894827" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N23" r:id="rId16" tooltip="Click to view additional information on this product." display="http://www.mouser.com/ProductDetail/Maxim-Integrated/DS3231SN/?qs=sGAEpiMZZMuuBt6TL7D%2f6MqiKtjHXkRT" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L23" r:id="rId17" tooltip="26R5852" display="http://www.newark.com/maxim-integrated-products/ds3231sn/rtc-tcxo-crystal-3-3v-16soic/dp/26R5852" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="P21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="R21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L16" r:id="rId20" tooltip="84R5176" display="http://www.newark.com/microchip/mcp1700t-3002e-tt/ic-ldo-volt-reg-3v-0-25a-sot-23/dp/84R5176" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3588,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3600,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
